--- a/Data_Driven/BuyBooks/SecB_buybook_data.xlsx
+++ b/Data_Driven/BuyBooks/SecB_buybook_data.xlsx
@@ -1,100 +1,61 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25831"/>
-  <workbookPr defaultThemeVersion="166925"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Năm 3\BTL test\testing-assignment\SectionB\Data_Driven\BuyBooks\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4610950C-7323-4195-ADC1-BDC59BAFD605}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <definedNames/>
+  <calcPr calcId="0" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="16">
-  <si>
-    <t>Quantity </t>
-  </si>
-  <si>
-    <t>Flow</t>
-  </si>
-  <si>
-    <t>Address</t>
-  </si>
-  <si>
-    <t>Expect</t>
-  </si>
-  <si>
-    <t>Result</t>
-  </si>
-  <si>
-    <t>No</t>
-  </si>
-  <si>
-    <t>InvalidQuantity</t>
-  </si>
-  <si>
-    <t>Passed</t>
-  </si>
-  <si>
-    <t>Success</t>
-  </si>
-  <si>
-    <t>Normal</t>
-  </si>
-  <si>
-    <t>KTX khu A ĐHQG HCM</t>
-  </si>
-  <si>
-    <t>Alter1</t>
-  </si>
-  <si>
-    <t>Exception</t>
-  </si>
-  <si>
-    <t>MissedField</t>
-  </si>
-  <si>
-    <t>a</t>
-  </si>
-  <si>
-    <t>InputNotNum</t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="0"/>
+  <fonts count="4">
     <font>
-      <sz val="12"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <color theme="1"/>
+      <sz val="12"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+      <b val="1"/>
+      <color theme="1"/>
       <sz val="10"/>
+    </font>
+    <font>
+      <name val="Times New Roman"/>
+      <family val="1"/>
       <color theme="1"/>
-      <name val="Arial"/>
-      <family val="2"/>
+      <sz val="12"/>
+    </font>
+    <font>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+      <color theme="1"/>
+      <sz val="10"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
-      <patternFill patternType="none"/>
+      <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="2">
@@ -124,23 +85,86 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+  <cellXfs count="4">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -440,236 +464,337 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
   <dimension ref="A1:E14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E14" sqref="E14"/>
+      <selection activeCell="I13" sqref="I13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="11" defaultRowHeight="15.5"/>
   <cols>
-    <col min="3" max="3" width="19" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.625" bestFit="1" customWidth="1"/>
+    <col width="11" customWidth="1" style="2" min="1" max="2"/>
+    <col width="19" bestFit="1" customWidth="1" style="2" min="3" max="3"/>
+    <col width="12.58203125" bestFit="1" customWidth="1" style="2" min="4" max="4"/>
+    <col width="11" customWidth="1" style="2" min="5" max="16384"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Quantity </t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Flow</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Address</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>Expect</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>Result</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="3" t="n">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B2" s="3" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="C2" s="3" t="n"/>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>InvalidQuantity</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
+          <t>Passed</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="3" t="n">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="B3" s="3" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="C3" s="3" t="n"/>
+      <c r="D3" s="3" t="inlineStr">
+        <is>
+          <t>Success</t>
+        </is>
+      </c>
+      <c r="E3" s="3" t="inlineStr">
+        <is>
+          <t>Passed</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="3" t="n">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="B4" s="3" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="C4" s="3" t="n"/>
+      <c r="D4" s="3" t="inlineStr">
+        <is>
+          <t>Success</t>
+        </is>
+      </c>
+      <c r="E4" s="3" t="inlineStr">
+        <is>
+          <t>Passed</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="3" t="n">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="B5" s="3" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="C5" s="3" t="n"/>
+      <c r="D5" s="3" t="inlineStr">
+        <is>
+          <t>Success</t>
+        </is>
+      </c>
+      <c r="E5" s="3" t="inlineStr">
+        <is>
+          <t>Passed</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="3" t="n">
         <v>4</v>
       </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" s="1">
-        <v>0</v>
-      </c>
-      <c r="B2" s="1" t="s">
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="C6" s="3" t="n"/>
+      <c r="D6" s="3" t="inlineStr">
+        <is>
+          <t>Success</t>
+        </is>
+      </c>
+      <c r="E6" s="3" t="inlineStr">
+        <is>
+          <t>Passed</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="3" t="n">
         <v>5</v>
       </c>
-      <c r="C2" s="1"/>
-      <c r="D2" s="1" t="s">
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="C7" s="3" t="n"/>
+      <c r="D7" s="3" t="inlineStr">
+        <is>
+          <t>Success</t>
+        </is>
+      </c>
+      <c r="E7" s="3" t="inlineStr">
+        <is>
+          <t>Passed</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="3" t="n">
         <v>6</v>
       </c>
-      <c r="E2" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" s="1">
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="C8" s="3" t="n"/>
+      <c r="D8" s="3" t="inlineStr">
+        <is>
+          <t>InvalidQuantity</t>
+        </is>
+      </c>
+      <c r="E8" s="3" t="inlineStr">
+        <is>
+          <t>Passed</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="3" t="n">
         <v>1</v>
       </c>
-      <c r="B3" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3" s="1"/>
-      <c r="D3" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" s="1">
-        <v>2</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C4" s="1"/>
-      <c r="D4" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="E4" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5" s="1">
-        <v>3</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C5" s="1"/>
-      <c r="D5" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="E5" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A6" s="1">
-        <v>4</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C6" s="1"/>
-      <c r="D6" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="E6" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A7" s="1">
-        <v>5</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C7" s="1"/>
-      <c r="D7" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="E7" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A8" s="1">
+      <c r="B9" s="3" t="inlineStr">
+        <is>
+          <t>Normal</t>
+        </is>
+      </c>
+      <c r="C9" s="3" t="inlineStr">
+        <is>
+          <t>KTX khu A ĐHQG HCM</t>
+        </is>
+      </c>
+      <c r="D9" s="3" t="inlineStr">
+        <is>
+          <t>Success</t>
+        </is>
+      </c>
+      <c r="E9" s="3" t="inlineStr">
+        <is>
+          <t>Passed</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t>Alter1</t>
+        </is>
+      </c>
+      <c r="C10" s="3" t="inlineStr">
+        <is>
+          <t>KTX khu A ĐHQG HCM</t>
+        </is>
+      </c>
+      <c r="D10" s="3" t="inlineStr">
+        <is>
+          <t>Success</t>
+        </is>
+      </c>
+      <c r="E10" s="3" t="inlineStr">
+        <is>
+          <t>Passed</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t>Exception</t>
+        </is>
+      </c>
+      <c r="C11" s="3" t="n"/>
+      <c r="D11" s="3" t="inlineStr">
+        <is>
+          <t>MissedField</t>
+        </is>
+      </c>
+      <c r="E11" s="3" t="inlineStr">
+        <is>
+          <t>Passed</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="3" t="inlineStr">
+        <is>
+          <t>a</t>
+        </is>
+      </c>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="C12" s="3" t="n"/>
+      <c r="D12" s="3" t="inlineStr">
+        <is>
+          <t>InputNotNum</t>
+        </is>
+      </c>
+      <c r="E12" s="3" t="inlineStr">
+        <is>
+          <t>Passed</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="3" t="n">
+        <v>-1</v>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="C13" s="3" t="n"/>
+      <c r="D13" s="3" t="inlineStr">
+        <is>
+          <t>InvalidQuantity</t>
+        </is>
+      </c>
+      <c r="E13" s="3" t="inlineStr">
+        <is>
+          <t>Passed</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="3" t="n">
         <v>6</v>
       </c>
-      <c r="B8" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C8" s="1"/>
-      <c r="D8" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="E8" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A9" s="1">
-        <v>1</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="D9" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="E9" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A10" s="1">
-        <v>1</v>
-      </c>
-      <c r="B10" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="C10" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="D10" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="E10" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A11" s="1">
-        <v>1</v>
-      </c>
-      <c r="B11" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="C11" s="1"/>
-      <c r="D11" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="E11" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A12" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="B12" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C12" s="1"/>
-      <c r="D12" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="E12" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A13" s="1">
-        <v>-1</v>
-      </c>
-      <c r="B13" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C13" s="1"/>
-      <c r="D13" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="E13" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A14" s="1">
-        <v>6</v>
-      </c>
-      <c r="B14" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C14" s="1"/>
-      <c r="D14" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="E14" s="1" t="s">
-        <v>7</v>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="C14" s="3" t="n"/>
+      <c r="D14" s="3" t="inlineStr">
+        <is>
+          <t>InvalidQuantity</t>
+        </is>
+      </c>
+      <c r="E14" s="3" t="inlineStr">
+        <is>
+          <t>Passed</t>
+        </is>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" paperSize="9"/>
 </worksheet>
 </file>